--- a/db-maker/file2.xlsx
+++ b/db-maker/file2.xlsx
@@ -107,7 +107,7 @@
     <t>Кузьмич О.В. (1підгрупа)  Кіндрат П.В. (2 підгрупа)</t>
   </si>
   <si>
-    <t xml:space="preserve">307                                     308                              </t>
+    <t xml:space="preserve">307 308                              </t>
   </si>
   <si>
     <t>Нога А.М.</t>
@@ -682,6 +682,9 @@
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -702,9 +705,6 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1154,7 +1154,7 @@
       <c r="Q4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="S4" s="7" t="s">
@@ -1280,31 +1280,31 @@
       </c>
     </row>
     <row r="7" ht="91.5" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="17"/>
     </row>
     <row r="8" ht="91.5" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
         <v>46</v>
@@ -1315,19 +1315,19 @@
       <c r="F8" s="6">
         <v>408.0</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="10"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="21"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="10"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="21"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="11"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="21"/>
+      <c r="P8" s="22"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="21"/>
+      <c r="S8" s="22"/>
       <c r="T8" s="11"/>
       <c r="U8" s="6"/>
     </row>
@@ -1540,63 +1540,63 @@
       </c>
     </row>
     <row r="13" ht="91.5" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="22" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="17">
         <v>405.0</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="17">
         <v>405.0</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="17">
         <v>405.0</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="22" t="s">
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="T13" s="22" t="s">
+      <c r="T13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="17">
         <v>405.0</v>
       </c>
     </row>
     <row r="14" ht="91.5" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="10"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="10"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="21"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="10"/>
       <c r="L14" s="6"/>
       <c r="M14" s="7" t="s">
@@ -1608,10 +1608,10 @@
       <c r="O14" s="6">
         <v>306.0</v>
       </c>
-      <c r="P14" s="21"/>
+      <c r="P14" s="22"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="21"/>
+      <c r="S14" s="22"/>
       <c r="T14" s="11"/>
       <c r="U14" s="6"/>
     </row>
@@ -1740,7 +1740,7 @@
       <c r="H17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="14" t="s">
         <v>11</v>
       </c>
       <c r="J17" s="7" t="s">
@@ -1799,7 +1799,7 @@
       <c r="H18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="14" t="s">
         <v>11</v>
       </c>
       <c r="J18" s="7" t="s">
@@ -1830,60 +1830,60 @@
       <c r="U18" s="6"/>
     </row>
     <row r="19" ht="91.5" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="22" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="24" t="s">
         <v>72</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="22" t="s">
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="T19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="U19" s="16">
+      <c r="U19" s="17">
         <v>310.0</v>
       </c>
     </row>
     <row r="20" ht="91.5" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="10"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="10"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="21"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="10"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="21"/>
+      <c r="M20" s="22"/>
       <c r="N20" s="11"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="21"/>
+      <c r="P20" s="22"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="21"/>
+      <c r="S20" s="22"/>
       <c r="T20" s="11"/>
       <c r="U20" s="6"/>
     </row>
@@ -2134,63 +2134,63 @@
       <c r="B25" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="17">
         <v>405.0</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="17">
         <v>405.0</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="17">
         <v>405.0</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="22" t="s">
+      <c r="J25" s="23"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Q25" s="22" t="s">
+      <c r="Q25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="R25" s="16">
+      <c r="R25" s="17">
         <v>310.0</v>
       </c>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="16"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="17"/>
     </row>
     <row r="26" ht="91.5" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="21"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="10"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="10"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="21"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="10"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="21"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="11"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="21"/>
+      <c r="P26" s="22"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="6"/>
       <c r="S26" s="7" t="s">
@@ -2807,35 +2807,35 @@
     <row r="7" ht="87.0" customHeight="1">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="36"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="37" t="s">
         <v>71</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="17" t="s">
         <v>97</v>
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="16"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="35"/>
       <c r="N7" s="35"/>
-      <c r="O7" s="16"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
-      <c r="R7" s="16"/>
+      <c r="R7" s="17"/>
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
-      <c r="U7" s="16"/>
+      <c r="U7" s="17"/>
     </row>
     <row r="8" ht="87.0" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
@@ -2894,7 +2894,7 @@
       <c r="Q9" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="14" t="s">
         <v>98</v>
       </c>
       <c r="S9" s="32"/>
@@ -3009,7 +3009,7 @@
       <c r="N11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P11" s="32" t="s">
@@ -3091,7 +3091,7 @@
       <c r="B13" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="17">
         <v>405.0</v>
       </c>
       <c r="D13" s="35" t="s">
@@ -3100,7 +3100,7 @@
       <c r="E13" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="17">
         <v>405.0</v>
       </c>
       <c r="G13" s="37" t="s">
@@ -3109,21 +3109,21 @@
       <c r="H13" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="17">
         <v>405.0</v>
       </c>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="16"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
-      <c r="O13" s="16"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
-      <c r="R13" s="16"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
-      <c r="U13" s="16"/>
+      <c r="U13" s="17"/>
     </row>
     <row r="14" ht="87.0" customHeight="1">
       <c r="A14" s="12"/>
@@ -3388,19 +3388,19 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="40"/>
-      <c r="D19" s="23"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="26"/>
       <c r="F19" s="40"/>
       <c r="G19" s="37"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="35" t="s">
         <v>60</v>
       </c>
       <c r="K19" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="17">
         <v>405.0</v>
       </c>
       <c r="M19" s="35" t="s">
@@ -3409,21 +3409,21 @@
       <c r="N19" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="17">
         <v>405.0</v>
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
-      <c r="R19" s="16"/>
+      <c r="R19" s="17"/>
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
-      <c r="U19" s="16"/>
+      <c r="U19" s="17"/>
     </row>
     <row r="20" ht="87.0" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="10"/>
       <c r="F20" s="6"/>
       <c r="G20" s="34"/>
@@ -3691,31 +3691,31 @@
     <row r="25" ht="87.0" customHeight="1">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="37"/>
       <c r="H25" s="35"/>
-      <c r="I25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
-      <c r="L25" s="16"/>
+      <c r="L25" s="17"/>
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
-      <c r="O25" s="16"/>
+      <c r="O25" s="17"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
-      <c r="R25" s="16"/>
+      <c r="R25" s="17"/>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
-      <c r="U25" s="16"/>
+      <c r="U25" s="17"/>
     </row>
     <row r="26" ht="87.0" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="21"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="10"/>
       <c r="F26" s="6"/>
       <c r="G26" s="34"/>
@@ -3827,7 +3827,7 @@
       <c r="Q28" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="R28" s="24" t="s">
+      <c r="R28" s="14" t="s">
         <v>98</v>
       </c>
       <c r="S28" s="32" t="s">
@@ -3886,7 +3886,7 @@
       <c r="Q29" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="R29" s="24" t="s">
+      <c r="R29" s="14" t="s">
         <v>107</v>
       </c>
       <c r="S29" s="32" t="s">
@@ -3955,19 +3955,19 @@
       <c r="F31" s="6"/>
       <c r="G31" s="37"/>
       <c r="H31" s="35"/>
-      <c r="I31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
-      <c r="L31" s="16"/>
+      <c r="L31" s="17"/>
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
-      <c r="O31" s="16"/>
+      <c r="O31" s="17"/>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
-      <c r="R31" s="16"/>
+      <c r="R31" s="17"/>
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
-      <c r="U31" s="16"/>
+      <c r="U31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
